--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Plau-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Plau-Plaur.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.935331</v>
+        <v>18.76993966666667</v>
       </c>
       <c r="H2">
-        <v>98.805993</v>
+        <v>56.309819</v>
       </c>
       <c r="I2">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="J2">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.81717833333333</v>
+        <v>15.03463666666667</v>
       </c>
       <c r="N2">
-        <v>83.45153500000001</v>
+        <v>45.10391</v>
       </c>
       <c r="O2">
-        <v>0.4044740580248731</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="P2">
-        <v>0.4044740580248732</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="Q2">
-        <v>916.1679758943617</v>
+        <v>282.1992231435877</v>
       </c>
       <c r="R2">
-        <v>8245.511783049256</v>
+        <v>2539.79300829229</v>
       </c>
       <c r="S2">
-        <v>0.07426809619745973</v>
+        <v>0.02421402110933055</v>
       </c>
       <c r="T2">
-        <v>0.07426809619745976</v>
+        <v>0.02421402110933055</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.935331</v>
+        <v>18.76993966666667</v>
       </c>
       <c r="H3">
-        <v>98.805993</v>
+        <v>56.309819</v>
       </c>
       <c r="I3">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="J3">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>14.482232</v>
       </c>
       <c r="O3">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="P3">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="Q3">
-        <v>158.9923681795973</v>
+        <v>90.61020695955644</v>
       </c>
       <c r="R3">
-        <v>1430.931313616376</v>
+        <v>815.4918626360079</v>
       </c>
       <c r="S3">
-        <v>0.01288853224005921</v>
+        <v>0.007774782083376417</v>
       </c>
       <c r="T3">
-        <v>0.01288853224005921</v>
+        <v>0.007774782083376417</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.935331</v>
+        <v>18.76993966666667</v>
       </c>
       <c r="H4">
-        <v>98.805993</v>
+        <v>56.309819</v>
       </c>
       <c r="I4">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="J4">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.066688333333333</v>
+        <v>6.211932333333333</v>
       </c>
       <c r="N4">
-        <v>12.200065</v>
+        <v>18.635797</v>
       </c>
       <c r="O4">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880762</v>
       </c>
       <c r="P4">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880764</v>
       </c>
       <c r="Q4">
-        <v>133.9377263321716</v>
+        <v>116.5975951100826</v>
       </c>
       <c r="R4">
-        <v>1205.439536989545</v>
+        <v>1049.378355990743</v>
       </c>
       <c r="S4">
-        <v>0.01085750670775872</v>
+        <v>0.01000462225885071</v>
       </c>
       <c r="T4">
-        <v>0.01085750670775872</v>
+        <v>0.01000462225885071</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.935331</v>
+        <v>18.76993966666667</v>
       </c>
       <c r="H5">
-        <v>98.805993</v>
+        <v>56.309819</v>
       </c>
       <c r="I5">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="J5">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.06242466666667</v>
+        <v>36.49384133333334</v>
       </c>
       <c r="N5">
-        <v>96.187274</v>
+        <v>109.481524</v>
       </c>
       <c r="O5">
-        <v>0.4662018145637509</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="P5">
-        <v>0.466201814563751</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="Q5">
-        <v>1055.986569059231</v>
+        <v>684.9872000315729</v>
       </c>
       <c r="R5">
-        <v>9503.879121533082</v>
+        <v>6164.884800284156</v>
       </c>
       <c r="S5">
-        <v>0.0856023285659565</v>
+        <v>0.05877512466696744</v>
       </c>
       <c r="T5">
-        <v>0.08560232856595651</v>
+        <v>0.05877512466696744</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>286.686402</v>
       </c>
       <c r="I6">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="J6">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.81717833333333</v>
+        <v>15.03463666666667</v>
       </c>
       <c r="N6">
-        <v>83.45153500000001</v>
+        <v>45.10391</v>
       </c>
       <c r="O6">
-        <v>0.4044740580248731</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="P6">
-        <v>0.4044740580248732</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="Q6">
-        <v>2658.268923391897</v>
+        <v>1436.741963781313</v>
       </c>
       <c r="R6">
-        <v>23924.42031052707</v>
+        <v>12930.67767403182</v>
       </c>
       <c r="S6">
-        <v>0.2154894924464715</v>
+        <v>0.1232792204461894</v>
       </c>
       <c r="T6">
-        <v>0.2154894924464715</v>
+        <v>0.1232792204461894</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>286.686402</v>
       </c>
       <c r="I7">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="J7">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>14.482232</v>
       </c>
       <c r="O7">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="P7">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="Q7">
         <v>461.3176650010293</v>
@@ -883,10 +883,10 @@
         <v>4151.858985009264</v>
       </c>
       <c r="S7">
-        <v>0.03739618238504597</v>
+        <v>0.03958322618329228</v>
       </c>
       <c r="T7">
-        <v>0.03739618238504597</v>
+        <v>0.03958322618329228</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>286.686402</v>
       </c>
       <c r="I8">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="J8">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.066688333333333</v>
+        <v>6.211932333333333</v>
       </c>
       <c r="N8">
-        <v>12.200065</v>
+        <v>18.635797</v>
       </c>
       <c r="O8">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880762</v>
       </c>
       <c r="P8">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880764</v>
       </c>
       <c r="Q8">
-        <v>388.6214154462367</v>
+        <v>593.6255100369327</v>
       </c>
       <c r="R8">
-        <v>3497.59273901613</v>
+        <v>5342.629590332393</v>
       </c>
       <c r="S8">
-        <v>0.03150314508491619</v>
+        <v>0.05093586180340984</v>
       </c>
       <c r="T8">
-        <v>0.03150314508491619</v>
+        <v>0.05093586180340984</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>286.686402</v>
       </c>
       <c r="I9">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="J9">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>32.06242466666667</v>
+        <v>36.49384133333334</v>
       </c>
       <c r="N9">
-        <v>96.187274</v>
+        <v>109.481524</v>
       </c>
       <c r="O9">
-        <v>0.4662018145637509</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="P9">
-        <v>0.466201814563751</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="Q9">
-        <v>3063.953722360905</v>
+        <v>3487.429355670739</v>
       </c>
       <c r="R9">
-        <v>27575.58350124815</v>
+        <v>31386.86420103665</v>
       </c>
       <c r="S9">
-        <v>0.2483758609601331</v>
+        <v>0.2992378472726816</v>
       </c>
       <c r="T9">
-        <v>0.2483758609601332</v>
+        <v>0.2992378472726816</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.80362366666667</v>
+        <v>20.061603</v>
       </c>
       <c r="H10">
-        <v>41.410871</v>
+        <v>60.184809</v>
       </c>
       <c r="I10">
-        <v>0.07695603739564764</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="J10">
-        <v>0.07695603739564766</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.81717833333333</v>
+        <v>15.03463666666667</v>
       </c>
       <c r="N10">
-        <v>83.45153500000001</v>
+        <v>45.10391</v>
       </c>
       <c r="O10">
-        <v>0.4044740580248731</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="P10">
-        <v>0.4044740580248732</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="Q10">
-        <v>383.9778611818872</v>
+        <v>301.61891205591</v>
       </c>
       <c r="R10">
-        <v>3455.800750636985</v>
+        <v>2714.57020850319</v>
       </c>
       <c r="S10">
-        <v>0.03112672073493149</v>
+        <v>0.02588032178876347</v>
       </c>
       <c r="T10">
-        <v>0.0311267207349315</v>
+        <v>0.02588032178876348</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.80362366666667</v>
+        <v>20.061603</v>
       </c>
       <c r="H11">
-        <v>41.410871</v>
+        <v>60.184809</v>
       </c>
       <c r="I11">
-        <v>0.07695603739564764</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="J11">
-        <v>0.07695603739564766</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>14.482232</v>
       </c>
       <c r="O11">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="P11">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="Q11">
-        <v>66.63576012711911</v>
+        <v>96.845596312632</v>
       </c>
       <c r="R11">
-        <v>599.721841144072</v>
+        <v>871.610366813688</v>
       </c>
       <c r="S11">
-        <v>0.005401750741702814</v>
+        <v>0.008309807827736611</v>
       </c>
       <c r="T11">
-        <v>0.005401750741702815</v>
+        <v>0.008309807827736611</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.80362366666667</v>
+        <v>20.061603</v>
       </c>
       <c r="H12">
-        <v>41.410871</v>
+        <v>60.184809</v>
       </c>
       <c r="I12">
-        <v>0.07695603739564764</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="J12">
-        <v>0.07695603739564766</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.066688333333333</v>
+        <v>6.211932333333333</v>
       </c>
       <c r="N12">
-        <v>12.200065</v>
+        <v>18.635797</v>
       </c>
       <c r="O12">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880762</v>
       </c>
       <c r="P12">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880764</v>
       </c>
       <c r="Q12">
-        <v>56.13503532295722</v>
+        <v>124.621320334197</v>
       </c>
       <c r="R12">
-        <v>505.215317906615</v>
+        <v>1121.591883007773</v>
       </c>
       <c r="S12">
-        <v>0.004550521643526533</v>
+        <v>0.01069309563516939</v>
       </c>
       <c r="T12">
-        <v>0.004550521643526534</v>
+        <v>0.01069309563516939</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.80362366666667</v>
+        <v>20.061603</v>
       </c>
       <c r="H13">
-        <v>41.410871</v>
+        <v>60.184809</v>
       </c>
       <c r="I13">
-        <v>0.07695603739564764</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="J13">
-        <v>0.07695603739564766</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>32.06242466666667</v>
+        <v>36.49384133333334</v>
       </c>
       <c r="N13">
-        <v>96.187274</v>
+        <v>109.481524</v>
       </c>
       <c r="O13">
-        <v>0.4662018145637509</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="P13">
-        <v>0.466201814563751</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="Q13">
-        <v>442.5776439395171</v>
+        <v>732.1249567743241</v>
       </c>
       <c r="R13">
-        <v>3983.198795455654</v>
+        <v>6589.124610968916</v>
       </c>
       <c r="S13">
-        <v>0.0358770442754868</v>
+        <v>0.06281976598135797</v>
       </c>
       <c r="T13">
-        <v>0.03587704427548682</v>
+        <v>0.06281976598135797</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.06916133333333</v>
+        <v>51.87415833333333</v>
       </c>
       <c r="H14">
-        <v>111.207484</v>
+        <v>155.622475</v>
       </c>
       <c r="I14">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="J14">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.81717833333333</v>
+        <v>15.03463666666667</v>
       </c>
       <c r="N14">
-        <v>83.45153500000001</v>
+        <v>45.10391</v>
       </c>
       <c r="O14">
-        <v>0.4044740580248731</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="P14">
-        <v>0.4044740580248732</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="Q14">
-        <v>1031.159471476438</v>
+        <v>779.9091229308056</v>
       </c>
       <c r="R14">
-        <v>9280.43524328794</v>
+        <v>7019.18210637725</v>
       </c>
       <c r="S14">
-        <v>0.08358974864601042</v>
+        <v>0.0669198722648401</v>
       </c>
       <c r="T14">
-        <v>0.08358974864601043</v>
+        <v>0.0669198722648401</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.06916133333333</v>
+        <v>51.87415833333333</v>
       </c>
       <c r="H15">
-        <v>111.207484</v>
+        <v>155.622475</v>
       </c>
       <c r="I15">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="J15">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>14.482232</v>
       </c>
       <c r="O15">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="P15">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="Q15">
-        <v>178.9480648249209</v>
+        <v>250.4178652626889</v>
       </c>
       <c r="R15">
-        <v>1610.532583424288</v>
+        <v>2253.7607873642</v>
       </c>
       <c r="S15">
-        <v>0.0145062176832722</v>
+        <v>0.02148703107002873</v>
       </c>
       <c r="T15">
-        <v>0.0145062176832722</v>
+        <v>0.02148703107002873</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.06916133333333</v>
+        <v>51.87415833333333</v>
       </c>
       <c r="H16">
-        <v>111.207484</v>
+        <v>155.622475</v>
       </c>
       <c r="I16">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="J16">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.066688333333333</v>
+        <v>6.211932333333333</v>
       </c>
       <c r="N16">
-        <v>12.200065</v>
+        <v>18.635797</v>
       </c>
       <c r="O16">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880762</v>
       </c>
       <c r="P16">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880764</v>
       </c>
       <c r="Q16">
-        <v>150.7487259207178</v>
+        <v>322.2387614152861</v>
       </c>
       <c r="R16">
-        <v>1356.73853328646</v>
+        <v>2900.148852737575</v>
       </c>
       <c r="S16">
-        <v>0.0122202709250943</v>
+        <v>0.0276496018813777</v>
       </c>
       <c r="T16">
-        <v>0.0122202709250943</v>
+        <v>0.0276496018813777</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.06916133333333</v>
+        <v>51.87415833333333</v>
       </c>
       <c r="H17">
-        <v>111.207484</v>
+        <v>155.622475</v>
       </c>
       <c r="I17">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="J17">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.06242466666667</v>
+        <v>36.49384133333334</v>
       </c>
       <c r="N17">
-        <v>96.187274</v>
+        <v>109.481524</v>
       </c>
       <c r="O17">
-        <v>0.4662018145637509</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="P17">
-        <v>0.466201814563751</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="Q17">
-        <v>1188.527192706513</v>
+        <v>1893.087303516878</v>
       </c>
       <c r="R17">
-        <v>10696.74473435862</v>
+        <v>17037.7857316519</v>
       </c>
       <c r="S17">
-        <v>0.09634658076217451</v>
+        <v>0.1624357977266278</v>
       </c>
       <c r="T17">
-        <v>0.09634658076217452</v>
+        <v>0.1624357977266278</v>
       </c>
     </row>
   </sheetData>
